--- a/data/trans_orig/TAM_HOG-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/TAM_HOG-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>2.948651306241564</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.473742268407031</v>
+        <v>2.473742268407032</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3.251332617723145</v>
@@ -681,7 +681,7 @@
         <v>2.97267420124802</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>2.65376377941658</v>
+        <v>2.653763779416581</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>3.24581381618484</v>
@@ -693,7 +693,7 @@
         <v>2.960645275420114</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>2.566499054446707</v>
+        <v>2.566499054446708</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.140171643270071</v>
+        <v>3.152505233644116</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.027268940939234</v>
+        <v>3.040533342012313</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.84496084457668</v>
+        <v>2.830280835527504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.376775261039258</v>
+        <v>2.381080495736179</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.16214206587407</v>
+        <v>3.158951629831277</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.05052944502183</v>
+        <v>3.054063166256745</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.862834516728936</v>
+        <v>2.881319431545641</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.579072634093383</v>
+        <v>2.57684731314407</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.18236833352938</v>
+        <v>3.177842222837377</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.074754645669546</v>
+        <v>3.071578678403309</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.893467278520378</v>
+        <v>2.883906617797303</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.499300237462605</v>
+        <v>2.506679350399079</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.324896074192323</v>
+        <v>3.325299766517715</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.224427752053273</v>
+        <v>3.235290342752785</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.046417777816584</v>
+        <v>3.039734667095751</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.568652715543488</v>
+        <v>2.577716913022836</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.343156117038581</v>
+        <v>3.341489935565924</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.252378564425427</v>
+        <v>3.259801307899356</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.073477908964247</v>
+        <v>3.07432174056683</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.734682357626788</v>
+        <v>2.733436886304521</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.310358316353296</v>
+        <v>3.307918779469078</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.21593883071368</v>
+        <v>3.211392935901291</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3.027063042466206</v>
+        <v>3.03105084915842</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.623632582314273</v>
+        <v>2.631825037478802</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>3.073180231129395</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.854821603538799</v>
+        <v>2.854821603538798</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>3.350790714883243</v>
@@ -829,7 +829,7 @@
         <v>3.07221970221027</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>2.867822754223413</v>
+        <v>2.867822754223412</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.218990151062341</v>
+        <v>3.222122180408364</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.213445923505233</v>
+        <v>3.218438440855844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.993261677724828</v>
+        <v>2.993848399922259</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.772842875279805</v>
+        <v>2.764961694880342</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.262597892915345</v>
+        <v>3.256541447994236</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.222322912090617</v>
+        <v>3.223502027452422</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.988284571585676</v>
+        <v>2.992826392553798</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.808236628462807</v>
+        <v>2.806644966438963</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.272811074590337</v>
+        <v>3.268583913187284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3.242477125002091</v>
+        <v>3.23925490439501</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.009552331635829</v>
+        <v>3.014477452174023</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>2.810172879079911</v>
+        <v>2.808775378333505</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.394611931575734</v>
+        <v>3.38964526818779</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.366103894407266</v>
+        <v>3.375095078794644</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.160824848696967</v>
+        <v>3.165865788999842</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.949352099556046</v>
+        <v>2.948672776160297</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.455601322813519</v>
+        <v>3.437531779769351</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.37983682436453</v>
+        <v>3.379860961183906</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.161437727417555</v>
+        <v>3.147958010964602</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.954915531325156</v>
+        <v>2.962853792388016</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.396139125283279</v>
+        <v>3.392908311105797</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.354656151297712</v>
+        <v>3.354339997351989</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.130397898697614</v>
+        <v>3.128222601694164</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>2.927954304338793</v>
+        <v>2.924755459140648</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.945251282759886</v>
+        <v>2.948855531541968</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.061230112306902</v>
+        <v>3.05608218611593</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.818838215771269</v>
+        <v>2.822547549492661</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.683136549755055</v>
+        <v>2.669834285365178</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.034717945036016</v>
+        <v>3.037946207534176</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.069194981977449</v>
+        <v>3.06966117691931</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.825528109688342</v>
+        <v>2.830184976605155</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.869527553992304</v>
+        <v>2.878521716068906</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.018027706056418</v>
+        <v>3.014452415218284</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.086205411698835</v>
+        <v>3.093683359085682</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2.857168594339149</v>
+        <v>2.851515573650418</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>2.800438954793997</v>
+        <v>2.801081540259735</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.131842844575894</v>
+        <v>3.129161839186489</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.246320034783927</v>
+        <v>3.253885273456143</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.022210093708705</v>
+        <v>3.024563781564225</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.89731382258894</v>
+        <v>2.889496919530421</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.242382934298974</v>
+        <v>3.232070391690922</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.258346700851011</v>
+        <v>3.256716872131207</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.01862594581207</v>
+        <v>3.02171381467243</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.058107223000254</v>
+        <v>3.062608357131709</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.14801568801874</v>
+        <v>3.160120140812988</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.225839941259788</v>
+        <v>3.232070181014957</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.997411505563451</v>
+        <v>2.99136920277925</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2.946940657721213</v>
+        <v>2.940363293190334</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>2.766235330759599</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>2.708936112540043</v>
+        <v>2.708936112540044</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.967457586630218</v>
+        <v>2.972925985871994</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.996814641791214</v>
+        <v>2.997970573597283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.723436865118184</v>
+        <v>2.728072118090633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.629548226408107</v>
+        <v>2.630034157745367</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.045453682124517</v>
+        <v>3.04866325804179</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.911401336341223</v>
+        <v>2.917853703827587</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.652404559418478</v>
+        <v>2.657506436439035</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.619424320686533</v>
+        <v>2.635892352449237</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.03751347376497</v>
+        <v>3.028318115345984</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2.985790298860143</v>
+        <v>2.973289533835367</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2.714280781070633</v>
+        <v>2.713591935053275</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>2.655149048257184</v>
+        <v>2.651321360597369</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.122229308654398</v>
+        <v>3.12990537415256</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.158044282022084</v>
+        <v>3.166893117669046</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.888319237491016</v>
+        <v>2.888176597326921</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.817187895511185</v>
+        <v>2.804964236912807</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.203906381007422</v>
+        <v>3.208221478007839</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.081028704689243</v>
+        <v>3.080982308210997</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.805164664795287</v>
+        <v>2.818341019279472</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.770357742582341</v>
+        <v>2.779830471245357</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.149415161314663</v>
+        <v>3.146443393995037</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.095448393750266</v>
+        <v>3.08842678596204</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.825007438186524</v>
+        <v>2.825284905331614</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2.770637119927249</v>
+        <v>2.76528975713717</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.122814187403312</v>
+        <v>3.122070985042953</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.127110462877301</v>
+        <v>3.127390985526335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.89324287352741</v>
+        <v>2.897023214709269</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.675480044293677</v>
+        <v>2.677237946011624</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.176006538211604</v>
+        <v>3.170765200790224</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.106360952887475</v>
+        <v>3.103314161268094</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.876740728345611</v>
+        <v>2.875048633227923</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.761229671910955</v>
+        <v>2.762430733217808</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.161187822449524</v>
+        <v>3.161152654695599</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3.131052487486238</v>
+        <v>3.128614739043657</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2.899449637646806</v>
+        <v>2.895032186650647</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>2.732949027368992</v>
+        <v>2.732765260939675</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.213151503229673</v>
+        <v>3.207845283233538</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.213633143001911</v>
+        <v>3.212742734186661</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.984792559471357</v>
+        <v>2.988029891250296</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.775767383542931</v>
+        <v>2.774220136336768</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.265796640292091</v>
+        <v>3.265514244690142</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.193845136688305</v>
+        <v>3.19400809878598</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.960525346918643</v>
+        <v>2.963574173195549</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.84147270548802</v>
+        <v>2.84241258176009</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.222492029222322</v>
+        <v>3.223140815441151</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3.1913907444379</v>
+        <v>3.191641308692424</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.966696829652078</v>
+        <v>2.957817511704896</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>2.795672667129362</v>
+        <v>2.795311192313626</v>
       </c>
     </row>
     <row r="19">
